--- a/output/question_2/question_2_results.xlsx
+++ b/output/question_2/question_2_results.xlsx
@@ -436,7 +436,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1476.50404929</v>
+        <v>1499.962292066981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7657799999999731</v>
+        <v>0.796722836247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.107411499999999</v>
+        <v>2.158953160282452</v>
       </c>
       <c r="F2" t="n">
-        <v>1.232349899999986</v>
+        <v>1.266795439743893</v>
       </c>
       <c r="G2" t="n">
-        <v>2.602031999999999</v>
+        <v>2.664190776218829</v>
       </c>
     </row>
     <row r="3">
@@ -514,19 +514,19 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>1476.48315564</v>
+        <v>1499.94089094886</v>
       </c>
       <c r="D3" t="n">
-        <v>3.029039999999965</v>
+        <v>3.100198566466231</v>
       </c>
       <c r="E3" t="n">
-        <v>17.10198975000024</v>
+        <v>17.58863773604966</v>
       </c>
       <c r="F3" t="n">
-        <v>7.300726200000075</v>
+        <v>7.500700336713032</v>
       </c>
       <c r="G3" t="n">
-        <v>25.34918400000017</v>
+        <v>26.06920606503952</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +539,19 @@
         <v>0.66</v>
       </c>
       <c r="C4" t="n">
-        <v>1476.4711149</v>
+        <v>1499.928411875626</v>
       </c>
       <c r="D4" t="n">
-        <v>3.319500000000225</v>
+        <v>3.401659081838742</v>
       </c>
       <c r="E4" t="n">
-        <v>31.73565975000009</v>
+        <v>32.76204403943869</v>
       </c>
       <c r="F4" t="n">
-        <v>11.56383630000015</v>
+        <v>11.86428187704525</v>
       </c>
       <c r="G4" t="n">
-        <v>56.08512000000028</v>
+        <v>57.7480263937186</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1476.434361</v>
+        <v>1499.889666130595</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.410000000000082</v>
+        <v>-1.421937789262529</v>
       </c>
       <c r="E5" t="n">
-        <v>48.93000000000029</v>
+        <v>49.97457415339795</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5335544182159533</v>
+        <v>0.5646016570913476</v>
       </c>
       <c r="G5" t="n">
-        <v>94.28050000000022</v>
+        <v>97.17963064225083</v>
       </c>
     </row>
     <row r="6">
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1323.467002995</v>
+        <v>1499.949329069397</v>
       </c>
       <c r="D6" t="n">
-        <v>5.581709999999908</v>
+        <v>6.353605643435301</v>
       </c>
       <c r="E6" t="n">
-        <v>12.20795999999958</v>
+        <v>13.88767957631763</v>
       </c>
       <c r="F6" t="n">
-        <v>7.966746899999704</v>
+        <v>9.03099643734652</v>
       </c>
       <c r="G6" t="n">
-        <v>14.26951499999976</v>
+        <v>16.11469014611169</v>
       </c>
     </row>
     <row r="7">
@@ -614,19 +614,19 @@
         <v>0.33</v>
       </c>
       <c r="C7" t="n">
-        <v>1323.34851597</v>
+        <v>1499.814363131363</v>
       </c>
       <c r="D7" t="n">
-        <v>28.11254999999972</v>
+        <v>32.31896216383636</v>
       </c>
       <c r="E7" t="n">
-        <v>118.4500541249999</v>
+        <v>135.4201062553399</v>
       </c>
       <c r="F7" t="n">
-        <v>57.80698019999978</v>
+        <v>66.26693860545694</v>
       </c>
       <c r="G7" t="n">
-        <v>155.7199079999999</v>
+        <v>177.6177636386168</v>
       </c>
     </row>
     <row r="8">
@@ -639,19 +639,19 @@
         <v>0.66</v>
       </c>
       <c r="C8" t="n">
-        <v>1323.39721899</v>
+        <v>1499.874606968563</v>
       </c>
       <c r="D8" t="n">
-        <v>32.74811249999973</v>
+        <v>38.08943938368297</v>
       </c>
       <c r="E8" t="n">
-        <v>241.5252869999999</v>
+        <v>274.7231616034412</v>
       </c>
       <c r="F8" t="n">
-        <v>95.51426714999982</v>
+        <v>109.5500625555512</v>
       </c>
       <c r="G8" t="n">
-        <v>297.7697519999999</v>
+        <v>338.1811404906231</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1323.4725</v>
+        <v>1499.965328491031</v>
       </c>
       <c r="D9" t="n">
-        <v>41.9099999999994</v>
+        <v>48.46841356229629</v>
       </c>
       <c r="E9" t="n">
-        <v>423.51</v>
+        <v>478.6707253888673</v>
       </c>
       <c r="F9" t="n">
-        <v>131.0091758241757</v>
+        <v>150.7224980072818</v>
       </c>
       <c r="G9" t="n">
-        <v>423.51</v>
+        <v>478.6707253888672</v>
       </c>
     </row>
   </sheetData>
